--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Embalse Estacional Sauzal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>Farm Sauzal SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>324020</v>
+        <v>655</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>18/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155185795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Empedrado</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>755</v>
+        <v>324020</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Empedrado</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>755</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Riego Embalse Empedrado . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>31/08/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3991274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción Sistema de Riego Embalse Empedrado . (e-seia)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>5600</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>31/08/2009</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3991274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Mina Las Piedras . (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>02/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Ampliación Proyecto Mina Las Piedras . (e-seia)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/04/2009</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DIA PRC Empedrado (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Empedrado</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>DIA PRC Empedrado (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Empedrado</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,43 +1576,91 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Juan Pablo Pérez Reyes</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>72</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>20/12/2005</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Empedrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>17/01/2005</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Empedrado</t>
         </is>

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embalse Estacional Sauzal</t>
+          <t>Parque Eólico El Guanaco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Farm Sauzal SpA</t>
+          <t>Atlas Energía SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>655</v>
+        <v>348000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>17/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155185795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156468634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,30 +472,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Embalse Estacional Sauzal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>Farm Sauzal SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>324020</v>
+        <v>655</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155185795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,40 +520,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Empedrado</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>755</v>
+        <v>324020</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Empedrado</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>755</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Riego Embalse Empedrado . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>31/08/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3991274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción Sistema de Riego Embalse Empedrado . (e-seia)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>5600</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>31/08/2009</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3991274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Mina Las Piedras . (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>02/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Ampliación Proyecto Mina Las Piedras . (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/04/2009</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DIA PRC Empedrado (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Empedrado</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>DIA PRC Empedrado (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Empedrado</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,43 +1624,91 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Juan Pablo Pérez Reyes</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>72</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>20/12/2005</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Empedrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="F28" t="n">
         <v>0</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>17/01/2005</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Empedrado</t>
         </is>

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/07/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Eólico El Guanaco</t>
+          <t>Embalse Estacional Fundo Matanza</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Atlas Energía SpA</t>
+          <t>Sociedad Vinícola Miguel Torres S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>348000</v>
+        <v>210</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>05/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156468634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157810766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embalse Estacional Sauzal</t>
+          <t>Parque Eólico El Guanaco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Farm Sauzal SpA</t>
+          <t>Atlas Energía SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>655</v>
+        <v>348000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155185795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156468634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,40 +520,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Embalse Estacional Sauzal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>Farm Sauzal SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>324020</v>
+        <v>655</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155185795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Empedrado</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>755</v>
+        <v>324020</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Empedrado</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>755</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Riego Embalse Empedrado . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>31/08/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3991274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción Sistema de Riego Embalse Empedrado . (e-seia)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>5600</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>31/08/2009</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3991274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Mina Las Piedras . (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>02/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Ampliación Proyecto Mina Las Piedras . (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/04/2009</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DIA PRC Empedrado (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Empedrado</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>DIA PRC Empedrado (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Empedrado</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,43 +1672,91 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Juan Pablo Pérez Reyes</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>72</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20/12/2005</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Empedrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F29" t="n">
         <v>0</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>17/01/2005</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Empedrado</t>
         </is>

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/12/2022</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>18/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embalse Estacional Fundo Matanza</t>
+          <t>Embalse Estacional Sauzal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad Vinícola Miguel Torres S.A.</t>
+          <t>Farm Sauzal SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>210</v>
+        <v>652</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/12/2022</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157810766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158429477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico El Guanaco</t>
+          <t>Embalse Estacional Fundo Matanza</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atlas Energía SpA</t>
+          <t>Sociedad Vinícola Miguel Torres S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>348000</v>
+        <v>210</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156468634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157810766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Embalse Estacional Sauzal</t>
+          <t>Parque Eólico El Guanaco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Farm Sauzal SpA</t>
+          <t>Atlas Energía SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>655</v>
+        <v>348000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155185795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156468634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Embalse Estacional Sauzal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>Farm Sauzal SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>324020</v>
+        <v>655</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155185795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,40 +616,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Empedrado</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>755</v>
+        <v>324020</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Empedrado</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>755</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Riego Embalse Empedrado . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31/08/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3991274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción Sistema de Riego Embalse Empedrado . (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>5600</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>31/08/2009</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3991274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Mina Las Piedras . (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>02/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Ampliación Proyecto Mina Las Piedras . (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/04/2009</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DIA PRC Empedrado (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Empedrado</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>DIA PRC Empedrado (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Empedrado</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,43 +1720,91 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Juan Pablo Pérez Reyes</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>72</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>20/12/2005</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Empedrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F30" t="n">
         <v>0</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>17/01/2005</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Empedrado</t>
         </is>

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>23/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/01/2023</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158429477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159062532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embalse Estacional Fundo Matanza</t>
+          <t>Embalse Estacional Sauzal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad Vinícola Miguel Torres S.A.</t>
+          <t>Farm Sauzal SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>210</v>
+        <v>652</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/12/2022</t>
+          <t>23/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157810766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158429477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Eólico El Guanaco</t>
+          <t>Embalse Estacional Fundo Matanza</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atlas Energía SpA</t>
+          <t>Sociedad Vinícola Miguel Torres S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>348000</v>
+        <v>210</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156468634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157810766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Embalse Estacional Sauzal</t>
+          <t>Parque Eólico El Guanaco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Farm Sauzal SpA</t>
+          <t>Atlas Energía SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>655</v>
+        <v>348000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155185795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156468634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,40 +616,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Embalse Estacional Sauzal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>Farm Sauzal SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>324020</v>
+        <v>655</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155185795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,40 +664,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Empedrado</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>755</v>
+        <v>324020</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Empedrado</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>755</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Riego Embalse Empedrado . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31/08/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3991274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción Sistema de Riego Embalse Empedrado . (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>5600</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>31/08/2009</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3991274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Mina Las Piedras . (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>02/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Ampliación Proyecto Mina Las Piedras . (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/04/2009</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DIA PRC Empedrado (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Empedrado</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>DIA PRC Empedrado (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Empedrado</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,43 +1768,91 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Juan Pablo Pérez Reyes</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>72</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>20/12/2005</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Empedrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="F31" t="n">
         <v>0</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>17/01/2005</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Empedrado</t>
         </is>

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Empedrado.xlsx
+++ b/data/Empedrado.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
